--- a/Planilha_CNPJ.xlsx
+++ b/Planilha_CNPJ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor Emanuell\OneDrive\Área de Trabalho\API Receita Federal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913F9D9B-6F94-4552-B9A1-C912BB4D7E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEDB2EE-E88E-4162-8498-E8D302383D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC2DCA5F-DC70-4DD2-94F8-232A76390F9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC2DCA5F-DC70-4DD2-94F8-232A76390F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9E3733-595A-4691-97BD-294353F73527}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -416,7 +416,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>29148959000150</v>
+        <v>53405671000107</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -426,7 +426,12 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>4712500000107</v>
+        <v>48423922000138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53405671000107</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha_CNPJ.xlsx
+++ b/Planilha_CNPJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor Emanuell\OneDrive\Área de Trabalho\API Receita Federal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DEDB2EE-E88E-4162-8498-E8D302383D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090A4F4-5946-4F1D-8320-50A69ACF797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC2DCA5F-DC70-4DD2-94F8-232A76390F9A}"/>
   </bookViews>
@@ -80,10 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9E3733-595A-4691-97BD-294353F73527}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,8 +416,8 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>53405671000107</v>
+      <c r="A2" s="3">
+        <v>29148959000150</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -432,6 +433,11 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>53405671000107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>51041667000173</v>
       </c>
     </row>
   </sheetData>

--- a/Planilha_CNPJ.xlsx
+++ b/Planilha_CNPJ.xlsx
@@ -1,63 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Igor Emanuell\OneDrive\Área de Trabalho\API Receita Federal\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2090A4F4-5946-4F1D-8320-50A69ACF797C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FC2DCA5F-DC70-4DD2-94F8-232A76390F9A}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr codeName="ThisWorkbook"/>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>CNPJ</t>
-  </si>
-</sst>
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4D5156"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,30 +64,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -113,44 +86,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -178,31 +151,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -230,23 +186,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -258,189 +197,434 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F9E3733-595A-4691-97BD-294353F73527}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="1">
+      <c r="A1" t="str">
+        <v>CNPJ</v>
+      </c>
+      <c r="B1" t="str">
+        <v>NOME</v>
+      </c>
+      <c r="C1" t="str">
+        <v>FANTASIA</v>
+      </c>
+      <c r="D1" t="str">
+        <v>PORTE</v>
+      </c>
+      <c r="E1" t="str">
+        <v>LOGRADOURO</v>
+      </c>
+      <c r="F1" t="str">
+        <v>MUNICIPIO</v>
+      </c>
+      <c r="G1" t="str">
+        <v>BAIRRO</v>
+      </c>
+      <c r="H1" t="str">
+        <v>UF</v>
+      </c>
+      <c r="I1" t="str">
+        <v>CEP</v>
+      </c>
+      <c r="J1" t="str">
+        <v>EMAIL</v>
+      </c>
+      <c r="K1" t="str">
+        <v>TELEFONE</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
         <v>29148959000150</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3">
         <v>14380200000121</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4">
         <v>48423922000138</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5">
         <v>53405671000107</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6">
         <v>51041667000173</v>
       </c>
     </row>
+    <row r="7">
+      <c r="B7" t="str">
+        <v>AGENCIA DE DADOS LTDA</v>
+      </c>
+      <c r="C7" t="str">
+        <v>AGENCIA DE DADOS</v>
+      </c>
+      <c r="D7" t="str">
+        <v>MICRO EMPRESA</v>
+      </c>
+      <c r="E7" t="str">
+        <v>SETOR COMERCIAL SUL QUADRA 01 BLOCO G</v>
+      </c>
+      <c r="F7" t="str">
+        <v>BRASILIA</v>
+      </c>
+      <c r="G7" t="str">
+        <v>ASA SUL</v>
+      </c>
+      <c r="H7" t="str">
+        <v>DF</v>
+      </c>
+      <c r="I7" t="str">
+        <v>70.309-900</v>
+      </c>
+      <c r="J7" t="str">
+        <v>administrativo@intraseg.com.br</v>
+      </c>
+      <c r="K7" t="str">
+        <v>(61) 8549-3011</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="str">
+        <v>IFOOD.COM AGENCIA DE RESTAURANTES ONLINE S.A.</v>
+      </c>
+      <c r="C8" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D8" t="str">
+        <v>DEMAIS</v>
+      </c>
+      <c r="E8" t="str">
+        <v>AV DOS AUTONOMISTAS 1496</v>
+      </c>
+      <c r="F8" t="str">
+        <v>OSASCO</v>
+      </c>
+      <c r="G8" t="str">
+        <v>VILA YARA</v>
+      </c>
+      <c r="H8" t="str">
+        <v>SP</v>
+      </c>
+      <c r="I8" t="str">
+        <v>06.020-902</v>
+      </c>
+      <c r="J8" t="str">
+        <v>juridico@ifood.com.br</v>
+      </c>
+      <c r="K8" t="str">
+        <v>(11) 3634-3360</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="str">
+        <v>KELVIN CRISOSTOMO GOMES 06951099103</v>
+      </c>
+      <c r="C9" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D9" t="str">
+        <v>MICRO EMPRESA</v>
+      </c>
+      <c r="E9" t="str">
+        <v>12A RUA QE 40</v>
+      </c>
+      <c r="F9" t="str">
+        <v>BRASILIA</v>
+      </c>
+      <c r="G9" t="str">
+        <v>GUARA II</v>
+      </c>
+      <c r="H9" t="str">
+        <v>DF</v>
+      </c>
+      <c r="I9" t="str">
+        <v>71.070-400</v>
+      </c>
+      <c r="J9" t="str">
+        <v>kelvin753@outlook.com</v>
+      </c>
+      <c r="K9" t="str">
+        <v>(61) 9456-3762</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="str">
+        <v>53.405.671 GUSTAVO XAVIER MAURMANN</v>
+      </c>
+      <c r="C10" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D10" t="str">
+        <v>MICRO EMPRESA</v>
+      </c>
+      <c r="E10" t="str">
+        <v>QUADRA CNA 3</v>
+      </c>
+      <c r="F10" t="str">
+        <v>BRASILIA</v>
+      </c>
+      <c r="G10" t="str">
+        <v>TAGUATINGA NORTE (TAGUATINGA)</v>
+      </c>
+      <c r="H10" t="str">
+        <v>DF</v>
+      </c>
+      <c r="I10" t="str">
+        <v>72.110-035</v>
+      </c>
+      <c r="J10" t="str">
+        <v>gustavo.maurmann2@gmail.com</v>
+      </c>
+      <c r="K10" t="str">
+        <v>(61) 9525-3612</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="str">
+        <v>51.041.667 LUCAS CALEB ALVES PEIXOTO DE QUADRO</v>
+      </c>
+      <c r="C11" t="str">
+        <v>N/A</v>
+      </c>
+      <c r="D11" t="str">
+        <v>MICRO EMPRESA</v>
+      </c>
+      <c r="E11" t="str">
+        <v>QUADRA CNA 3</v>
+      </c>
+      <c r="F11" t="str">
+        <v>BRASILIA</v>
+      </c>
+      <c r="G11" t="str">
+        <v>TAGUATINGA NORTE (TAGUATINGA)</v>
+      </c>
+      <c r="H11" t="str">
+        <v>DF</v>
+      </c>
+      <c r="I11" t="str">
+        <v>72.110-035</v>
+      </c>
+      <c r="J11" t="str">
+        <v>soucaleb51@gmail.com</v>
+      </c>
+      <c r="K11" t="str">
+        <v>(66) 9156-4931</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:K11"/>
+  </ignoredErrors>
 </worksheet>
 </file>